--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.0557327013389</v>
+        <v>179.1580256666667</v>
       </c>
       <c r="H2">
-        <v>53.0557327013389</v>
+        <v>537.4740770000001</v>
       </c>
       <c r="I2">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="J2">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>5612.276288953243</v>
+        <v>20969.47282209779</v>
       </c>
       <c r="R2">
-        <v>5612.276288953243</v>
+        <v>188725.2553988801</v>
       </c>
       <c r="S2">
-        <v>0.04160274461121839</v>
+        <v>0.1125497263794132</v>
       </c>
       <c r="T2">
-        <v>0.04160274461121839</v>
+        <v>0.1125497263794131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.0557327013389</v>
+        <v>179.1580256666667</v>
       </c>
       <c r="H3">
-        <v>53.0557327013389</v>
+        <v>537.4740770000001</v>
       </c>
       <c r="I3">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="J3">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>5384.693471586525</v>
+        <v>18198.8789357863</v>
       </c>
       <c r="R3">
-        <v>5384.693471586525</v>
+        <v>163789.9104220766</v>
       </c>
       <c r="S3">
-        <v>0.03991571615051247</v>
+        <v>0.09767908149204027</v>
       </c>
       <c r="T3">
-        <v>0.03991571615051247</v>
+        <v>0.09767908149204024</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.0557327013389</v>
+        <v>179.1580256666667</v>
       </c>
       <c r="H4">
-        <v>53.0557327013389</v>
+        <v>537.4740770000001</v>
       </c>
       <c r="I4">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="J4">
-        <v>0.136726351308732</v>
+        <v>0.3468013736386751</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>7447.632072728913</v>
+        <v>25445.2391687356</v>
       </c>
       <c r="R4">
-        <v>7447.632072728913</v>
+        <v>229007.1525186204</v>
       </c>
       <c r="S4">
-        <v>0.05520789054700108</v>
+        <v>0.1365725657672217</v>
       </c>
       <c r="T4">
-        <v>0.05520789054700108</v>
+        <v>0.1365725657672217</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>238.374216152697</v>
+        <v>239.807332</v>
       </c>
       <c r="H5">
-        <v>238.374216152697</v>
+        <v>719.421996</v>
       </c>
       <c r="I5">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="J5">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>25215.40827157092</v>
+        <v>28068.14437813592</v>
       </c>
       <c r="R5">
-        <v>25215.40827157092</v>
+        <v>252613.2994032233</v>
       </c>
       <c r="S5">
-        <v>0.1869170612028841</v>
+        <v>0.15065051928287</v>
       </c>
       <c r="T5">
-        <v>0.1869170612028841</v>
+        <v>0.15065051928287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>238.374216152697</v>
+        <v>239.807332</v>
       </c>
       <c r="H6">
-        <v>238.374216152697</v>
+        <v>719.421996</v>
       </c>
       <c r="I6">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="J6">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>24192.90093942272</v>
+        <v>24359.63773736706</v>
       </c>
       <c r="R6">
-        <v>24192.90093942272</v>
+        <v>219236.7396363036</v>
       </c>
       <c r="S6">
-        <v>0.179337407384666</v>
+        <v>0.1307458029728386</v>
       </c>
       <c r="T6">
-        <v>0.179337407384666</v>
+        <v>0.1307458029728385</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>238.374216152697</v>
+        <v>239.807332</v>
       </c>
       <c r="H7">
-        <v>238.374216152697</v>
+        <v>719.421996</v>
       </c>
       <c r="I7">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="J7">
-        <v>0.614298119377678</v>
+        <v>0.4642019905988459</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>33461.48224027145</v>
+        <v>34059.06542255273</v>
       </c>
       <c r="R7">
-        <v>33461.48224027145</v>
+        <v>306531.5888029746</v>
       </c>
       <c r="S7">
-        <v>0.2480436507901279</v>
+        <v>0.1828056683431374</v>
       </c>
       <c r="T7">
-        <v>0.2480436507901279</v>
+        <v>0.1828056683431374</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>96.6132644219299</v>
+        <v>97.63589966666666</v>
       </c>
       <c r="H8">
-        <v>96.6132644219299</v>
+        <v>292.907699</v>
       </c>
       <c r="I8">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="J8">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>10219.82555901794</v>
+        <v>11427.75120959685</v>
       </c>
       <c r="R8">
-        <v>10219.82555901794</v>
+        <v>102849.7608863716</v>
       </c>
       <c r="S8">
-        <v>0.07575763750973945</v>
+        <v>0.06133631888049831</v>
       </c>
       <c r="T8">
-        <v>0.07575763750973945</v>
+        <v>0.06133631888049831</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>96.6132644219299</v>
+        <v>97.63589966666666</v>
       </c>
       <c r="H9">
-        <v>96.6132644219299</v>
+        <v>292.907699</v>
       </c>
       <c r="I9">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="J9">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>9805.402502495272</v>
+        <v>9917.858333213588</v>
       </c>
       <c r="R9">
-        <v>9805.402502495272</v>
+        <v>89260.72499892229</v>
       </c>
       <c r="S9">
-        <v>0.07268559762897857</v>
+        <v>0.05323225105099719</v>
       </c>
       <c r="T9">
-        <v>0.07268559762897857</v>
+        <v>0.05323225105099718</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>96.6132644219299</v>
+        <v>97.63589966666666</v>
       </c>
       <c r="H10">
-        <v>96.6132644219299</v>
+        <v>292.907699</v>
       </c>
       <c r="I10">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="J10">
-        <v>0.24897552931359</v>
+        <v>0.1889966357624789</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>13561.966070853</v>
+        <v>13866.91335332814</v>
       </c>
       <c r="R10">
-        <v>13561.966070853</v>
+        <v>124802.2201799532</v>
       </c>
       <c r="S10">
-        <v>0.100532294174872</v>
+        <v>0.07442806583098345</v>
       </c>
       <c r="T10">
-        <v>0.100532294174872</v>
+        <v>0.07442806583098345</v>
       </c>
     </row>
   </sheetData>
